--- a/src/test/java/com/SL8Z/xls/Controller.xlsx
+++ b/src/test/java/com/SL8Z/xls/Controller.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Job Position" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:D11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>Description</t>
   </si>
@@ -39,9 +39,6 @@
     <t>PositionTitle</t>
   </si>
   <si>
-    <t>Automated Post 8</t>
-  </si>
-  <si>
     <t>Test_VerifyClientSideValidation</t>
   </si>
   <si>
@@ -70,6 +67,12 @@
   </si>
   <si>
     <t>Test_VerifyActionButtonsSingleJobDashboard</t>
+  </si>
+  <si>
+    <t>Automated Post 0001</t>
+  </si>
+  <si>
+    <t>Automated Post 0002</t>
   </si>
 </sst>
 </file>
@@ -443,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -476,90 +479,102 @@
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -568,15 +583,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -584,9 +599,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
